--- a/IEDC_LookupTable_fill/units_data.xlsx
+++ b/IEDC_LookupTable_fill/units_data.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="150">
   <si>
     <t>refunit_id</t>
   </si>
@@ -462,6 +462,21 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>GBP_2010</t>
+  </si>
+  <si>
+    <t>British Pound of 2010</t>
+  </si>
+  <si>
+    <t>million GBP_2010</t>
+  </si>
+  <si>
+    <t>million British Pound of 2010</t>
   </si>
 </sst>
 </file>
@@ -648,7 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -952,11 +967,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="M76" sqref="M76"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>144</v>
       </c>
@@ -985,7 +1002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1007,12 +1024,14 @@
       <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="I2" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1033,7 +1052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1054,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1075,7 +1094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1096,7 +1115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1117,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1138,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1159,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1180,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1201,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1222,7 +1241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1243,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1264,7 +1283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1285,7 +1304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1306,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1327,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1348,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1369,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1390,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1411,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1432,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1453,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1474,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1495,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1516,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1537,7 +1556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1558,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1579,7 +1598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1600,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1621,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1642,7 +1661,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1663,7 +1682,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1684,7 +1703,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1705,7 +1724,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1726,7 +1745,7 @@
         <v>9.9999999999999998E-13</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1747,7 +1766,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1768,7 +1787,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -1789,7 +1808,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -1810,7 +1829,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -1831,7 +1850,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -1852,7 +1871,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -1873,7 +1892,7 @@
         <v>604800</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -1894,7 +1913,7 @@
         <v>2629744</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -1919,7 +1938,7 @@
         <v>31556928</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -1942,7 +1961,7 @@
         <v>1000000000000</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -1965,7 +1984,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -1988,7 +2007,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -2011,7 +2030,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -2034,7 +2053,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -2055,7 +2074,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -2076,7 +2095,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -2097,7 +2116,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -2118,7 +2137,7 @@
         <v>9.9999999999999998E-13</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -2139,7 +2158,7 @@
         <v>1.0000000000000001E-15</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -2160,7 +2179,7 @@
         <v>1000000000000</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -2181,7 +2200,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -2202,7 +2221,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -2223,7 +2242,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -2244,7 +2263,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -2265,7 +2284,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -2286,7 +2305,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -2307,7 +2326,7 @@
         <v>9.9999999999999998E-13</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -2328,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -2349,7 +2368,7 @@
         <v>1000000000000</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -2370,7 +2389,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -2391,7 +2410,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -2412,7 +2431,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -2433,7 +2452,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -2454,7 +2473,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -2475,7 +2494,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -2496,7 +2515,7 @@
         <v>9.9999999999999998E-13</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -2517,7 +2536,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -2538,7 +2557,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -2559,7 +2578,7 @@
         <v>3600000000</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -2580,7 +2599,7 @@
         <v>3600000000000</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -2601,7 +2620,7 @@
         <v>3600000000000000</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -2622,7 +2641,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -2643,7 +2662,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -2664,7 +2683,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -2685,7 +2704,7 @@
         <v>1000000000000</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -2706,7 +2725,7 @@
         <v>1000000000000000</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -2727,7 +2746,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -2744,7 +2763,7 @@
       <c r="H84" s="11"/>
       <c r="I84" s="23"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -2761,31 +2780,45 @@
       <c r="H85" s="11"/>
       <c r="I85" s="23"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>85</v>
       </c>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
+      <c r="B86" s="21">
+        <v>8</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
+      <c r="F86" s="7" t="s">
+        <v>147</v>
+      </c>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
       <c r="I86" s="23"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="21">
+        <v>9</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
+      <c r="F87" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I87" s="23"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -2796,7 +2829,7 @@
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
@@ -2807,7 +2840,7 @@
       <c r="H89" s="25"/>
       <c r="I89" s="25"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
@@ -2818,7 +2851,7 @@
       <c r="H90" s="25"/>
       <c r="I90" s="25"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>

--- a/IEDC_LookupTable_fill/units_data.xlsx
+++ b/IEDC_LookupTable_fill/units_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="156">
   <si>
     <t>refunit_id</t>
   </si>
@@ -477,6 +477,24 @@
   </si>
   <si>
     <t>million British Pound of 2010</t>
+  </si>
+  <si>
+    <t>Bq</t>
+  </si>
+  <si>
+    <t>Bequerel</t>
+  </si>
+  <si>
+    <t>kBq</t>
+  </si>
+  <si>
+    <t>kilobequerel</t>
+  </si>
+  <si>
+    <t>BYen</t>
+  </si>
+  <si>
+    <t>Billion Yen</t>
   </si>
 </sst>
 </file>
@@ -594,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -661,6 +679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -967,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="M76" sqref="M76"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1270,12 +1289,12 @@
         <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="7" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -2750,14 +2769,16 @@
       <c r="A84" s="4">
         <v>83</v>
       </c>
-      <c r="B84" s="11"/>
+      <c r="B84" s="21">
+        <v>8</v>
+      </c>
       <c r="C84" s="6" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
       <c r="F84" s="7" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
@@ -2767,14 +2788,16 @@
       <c r="A85" s="4">
         <v>84</v>
       </c>
-      <c r="B85" s="11"/>
+      <c r="B85" s="21">
+        <v>8</v>
+      </c>
       <c r="C85" s="6" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
       <c r="F85" s="7" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -2785,49 +2808,40 @@
         <v>85</v>
       </c>
       <c r="B86" s="21">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
       <c r="F86" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
-      <c r="I86" s="23"/>
+      <c r="I86" s="23">
+        <v>1000</v>
+      </c>
     </row>
     <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>86</v>
       </c>
       <c r="B87" s="21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
+        <v>154</v>
+      </c>
       <c r="F87" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="23"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
+        <v>155</v>
+      </c>
+      <c r="I87" s="26"/>
+    </row>
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="4"/>
+      <c r="I88" s="26"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="25"/>

--- a/IEDC_LookupTable_fill/units_data.xlsx
+++ b/IEDC_LookupTable_fill/units_data.xlsx
@@ -73,28 +73,9 @@
     <t>Joule</t>
   </si>
   <si>
-    <t>m³</t>
-  </si>
-  <si>
     <t>cubic meter</t>
   </si>
   <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
     <t>square meter</t>
   </si>
   <si>
@@ -395,9 +376,6 @@
     <t>picowattsecond</t>
   </si>
   <si>
-    <t>cm³</t>
-  </si>
-  <si>
     <t>cubic centimeter</t>
   </si>
   <si>
@@ -495,13 +473,22 @@
   </si>
   <si>
     <t>Billion Yen</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>cm3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,14 +505,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -986,15 +965,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1044,7 +1023,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I2" s="8">
         <v>1</v>
@@ -1121,12 +1100,12 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -1142,12 +1121,12 @@
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1163,12 +1142,12 @@
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -1184,12 +1163,12 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -1205,12 +1184,12 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -1226,12 +1205,12 @@
         <v>10</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -1247,12 +1226,12 @@
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -1268,12 +1247,12 @@
         <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -1289,12 +1268,12 @@
         <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -1310,12 +1289,12 @@
         <v>14</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -1331,12 +1310,12 @@
         <v>15</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -1352,12 +1331,12 @@
         <v>16</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -1373,12 +1352,12 @@
         <v>17</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -1394,12 +1373,12 @@
         <v>18</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -1415,12 +1394,12 @@
         <v>19</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -1436,12 +1415,12 @@
         <v>20</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -1457,12 +1436,12 @@
         <v>21</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -1478,12 +1457,12 @@
         <v>22</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -1499,12 +1478,12 @@
         <v>23</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -1520,12 +1499,12 @@
         <v>24</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -1541,12 +1520,12 @@
         <v>25</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -1562,12 +1541,12 @@
         <v>26</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -1583,12 +1562,12 @@
         <v>27</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -1604,12 +1583,12 @@
         <v>28</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -1625,12 +1604,12 @@
         <v>29</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -1646,12 +1625,12 @@
         <v>30</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -1667,12 +1646,12 @@
         <v>1</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -1688,12 +1667,12 @@
         <v>1</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -1709,12 +1688,12 @@
         <v>1</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -1730,12 +1709,12 @@
         <v>1</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -1751,12 +1730,12 @@
         <v>3</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
@@ -1772,12 +1751,12 @@
         <v>3</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -1793,12 +1772,12 @@
         <v>3</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
@@ -1814,12 +1793,12 @@
         <v>3</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -1835,12 +1814,12 @@
         <v>3</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
       <c r="F40" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
@@ -1856,12 +1835,12 @@
         <v>3</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
       <c r="F41" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
@@ -1877,12 +1856,12 @@
         <v>3</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -1898,12 +1877,12 @@
         <v>3</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -1919,12 +1898,12 @@
         <v>3</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -1940,17 +1919,17 @@
         <v>3</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="8">
@@ -1965,15 +1944,15 @@
         <v>2</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="16">
@@ -1988,15 +1967,15 @@
         <v>2</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="16">
@@ -2011,15 +1990,15 @@
         <v>2</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="8">
@@ -2034,15 +2013,15 @@
         <v>2</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="8">
@@ -2057,15 +2036,15 @@
         <v>2</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="8">
@@ -2080,12 +2059,12 @@
         <v>2</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -2101,12 +2080,12 @@
         <v>2</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
@@ -2122,12 +2101,12 @@
         <v>2</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -2143,12 +2122,12 @@
         <v>2</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
@@ -2164,12 +2143,12 @@
         <v>2</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -2185,12 +2164,12 @@
         <v>4</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -2206,12 +2185,12 @@
         <v>4</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -2227,12 +2206,12 @@
         <v>4</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -2248,12 +2227,12 @@
         <v>4</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -2269,12 +2248,12 @@
         <v>4</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -2290,12 +2269,12 @@
         <v>4</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -2311,12 +2290,12 @@
         <v>4</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -2332,12 +2311,12 @@
         <v>4</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -2353,12 +2332,12 @@
         <v>4</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -2374,12 +2353,12 @@
         <v>4</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -2395,12 +2374,12 @@
         <v>4</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -2416,12 +2395,12 @@
         <v>4</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
@@ -2437,12 +2416,12 @@
         <v>4</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
@@ -2458,12 +2437,12 @@
         <v>4</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
@@ -2479,12 +2458,12 @@
         <v>4</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -2500,12 +2479,12 @@
         <v>4</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -2521,12 +2500,12 @@
         <v>4</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
@@ -2542,12 +2521,12 @@
         <v>5</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
@@ -2563,12 +2542,12 @@
         <v>4</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
@@ -2584,12 +2563,12 @@
         <v>4</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
@@ -2605,12 +2584,12 @@
         <v>4</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
@@ -2626,12 +2605,12 @@
         <v>4</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
@@ -2647,12 +2626,12 @@
         <v>7</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
       <c r="F78" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
@@ -2668,12 +2647,12 @@
         <v>7</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
@@ -2689,12 +2668,12 @@
         <v>7</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
       <c r="F80" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
@@ -2710,12 +2689,12 @@
         <v>7</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
       <c r="F81" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
@@ -2731,12 +2710,12 @@
         <v>7</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
       <c r="F82" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
@@ -2752,12 +2731,12 @@
         <v>9</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="F83" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
@@ -2773,12 +2752,12 @@
         <v>8</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
       <c r="F84" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
@@ -2792,12 +2771,12 @@
         <v>8</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
       <c r="F85" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -2811,12 +2790,12 @@
         <v>13</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
       <c r="F86" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
@@ -2832,10 +2811,10 @@
         <v>8</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I87" s="26"/>
     </row>

--- a/IEDC_LookupTable_fill/units_data.xlsx
+++ b/IEDC_LookupTable_fill/units_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="157">
   <si>
     <t>refunit_id</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>cm3</t>
+  </si>
+  <si>
+    <t>promille</t>
   </si>
 </sst>
 </file>
@@ -965,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2819,8 +2822,21 @@
       <c r="I87" s="26"/>
     </row>
     <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
-      <c r="I88" s="26"/>
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="21">
+        <v>1</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I88" s="26">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="25"/>
